--- a/data/trans_orig/P02F-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P02F-Estudios-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>956329</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>945537</v>
+        <v>945742</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>962503</v>
+        <v>962884</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9860614617163445</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9749339375609287</v>
+        <v>0.9751459334350111</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9924273312731476</v>
+        <v>0.9928204065831727</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1197</v>
@@ -763,19 +763,19 @@
         <v>1285985</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1271316</v>
+        <v>1270345</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1298959</v>
+        <v>1298612</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9634725326606576</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.952482004228862</v>
+        <v>0.9517547189084157</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.973192826911961</v>
+        <v>0.9729324839817164</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2088</v>
@@ -784,19 +784,19 @@
         <v>2242315</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2223279</v>
+        <v>2225022</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>2257214</v>
+        <v>2256696</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9729787053654168</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9647187160884871</v>
+        <v>0.9654749189403323</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9794434246991847</v>
+        <v>0.9792189061354239</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>13518</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7344</v>
+        <v>6963</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>24310</v>
+        <v>24105</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01393853828365551</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.007572668726852251</v>
+        <v>0.007179593416827282</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0250660624390713</v>
+        <v>0.02485406656498888</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>47</v>
@@ -834,19 +834,19 @@
         <v>48755</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>35781</v>
+        <v>36128</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>63424</v>
+        <v>64395</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03652746733934237</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02680717308803912</v>
+        <v>0.02706751601828352</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04751799577113803</v>
+        <v>0.04824528109158415</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>59</v>
@@ -855,19 +855,19 @@
         <v>62273</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>47374</v>
+        <v>47892</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>81309</v>
+        <v>79566</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02702129463458326</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02055657530081509</v>
+        <v>0.02078109386457599</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03528128391151279</v>
+        <v>0.0345250810596676</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>1929282</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1914171</v>
+        <v>1915248</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1938329</v>
+        <v>1938378</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9859959753129394</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9782735721153795</v>
+        <v>0.9788236719559673</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9906196478691768</v>
+        <v>0.9906447506959103</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1565</v>
@@ -980,19 +980,19 @@
         <v>1679057</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1661441</v>
+        <v>1659636</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1694751</v>
+        <v>1694866</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9591706267158346</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9491076291465343</v>
+        <v>0.9480764609212115</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9681357041377977</v>
+        <v>0.9682015406059165</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3388</v>
@@ -1001,19 +1001,19 @@
         <v>3608339</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3586698</v>
+        <v>3586670</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>3630055</v>
+        <v>3628264</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9733291624504705</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9674917355233391</v>
+        <v>0.9674843125819936</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9791870430902047</v>
+        <v>0.9787039422734674</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>27401</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>18354</v>
+        <v>18305</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>42512</v>
+        <v>41435</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0140040246870606</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.009380352130823218</v>
+        <v>0.00935524930408984</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02172642788462099</v>
+        <v>0.02117632804403279</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>65</v>
@@ -1051,19 +1051,19 @@
         <v>71473</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>55779</v>
+        <v>55664</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>89089</v>
+        <v>90894</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04082937328416539</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03186429586220231</v>
+        <v>0.03179845939408352</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05089237085346571</v>
+        <v>0.05192353907878863</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>91</v>
@@ -1072,19 +1072,19 @@
         <v>98874</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>77158</v>
+        <v>78949</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>120515</v>
+        <v>120543</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0266708375495295</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02081295690979539</v>
+        <v>0.02129605772653266</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03250826447666092</v>
+        <v>0.03251568741800616</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>474254</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>468020</v>
+        <v>468087</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>477338</v>
+        <v>477331</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9896961623987857</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9766861452338366</v>
+        <v>0.9768255456492149</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9961302041024864</v>
+        <v>0.9961153888355421</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>405</v>
@@ -1197,19 +1197,19 @@
         <v>451619</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>446237</v>
+        <v>444742</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>454688</v>
+        <v>454761</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9890621946420927</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9772762334560019</v>
+        <v>0.9740029417819238</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9957833494932916</v>
+        <v>0.9959447123907649</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>836</v>
@@ -1218,19 +1218,19 @@
         <v>925873</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>917715</v>
+        <v>917985</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>930717</v>
+        <v>930712</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9893868266833641</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9806690785802483</v>
+        <v>0.9809577386846143</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9945629772567443</v>
+        <v>0.9945573568264841</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>4938</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1854</v>
+        <v>1861</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11172</v>
+        <v>11105</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01030383760121428</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.003869795897513591</v>
+        <v>0.003884611164457973</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02331385476616278</v>
+        <v>0.02317445435078525</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -1268,19 +1268,19 @@
         <v>4994</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1925</v>
+        <v>1852</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10376</v>
+        <v>11871</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01093780535790739</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.004216650506708335</v>
+        <v>0.004055287609235186</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02272376654399813</v>
+        <v>0.0259970582180759</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>10</v>
@@ -1289,19 +1289,19 @@
         <v>9932</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5088</v>
+        <v>5093</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>18090</v>
+        <v>17820</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01061317331663592</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.005437022743255785</v>
+        <v>0.005442643173515961</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01933092141975182</v>
+        <v>0.0190422613153855</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>3359865</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3344559</v>
+        <v>3343872</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3372914</v>
+        <v>3372995</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9865352475413026</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.982041023015508</v>
+        <v>0.9818393274277148</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9903667768089752</v>
+        <v>0.9903905116058659</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3167</v>
@@ -1414,19 +1414,19 @@
         <v>3416661</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3392807</v>
+        <v>3391479</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>3435436</v>
+        <v>3437805</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9646453420463221</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9579106018079249</v>
+        <v>0.9575355163701369</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9699460790317106</v>
+        <v>0.9706151675857966</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6312</v>
@@ -1435,19 +1435,19 @@
         <v>6776526</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6746801</v>
+        <v>6748633</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>6801011</v>
+        <v>6800505</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9753757926248078</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9710973180944223</v>
+        <v>0.9713609978930178</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9789000884703745</v>
+        <v>0.9788272040404561</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>45857</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>32808</v>
+        <v>32727</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>61163</v>
+        <v>61850</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01346475245869742</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.009633223191024687</v>
+        <v>0.009609488394134103</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01795897698449182</v>
+        <v>0.01816067257228514</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>117</v>
@@ -1485,19 +1485,19 @@
         <v>125222</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>106447</v>
+        <v>104078</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>149076</v>
+        <v>150404</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03535465795367788</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03005392096828937</v>
+        <v>0.02938483241420338</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.042089398192075</v>
+        <v>0.04246448362986314</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>160</v>
@@ -1506,19 +1506,19 @@
         <v>171079</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>146594</v>
+        <v>147100</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>200804</v>
+        <v>198972</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02462420737519224</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02109991152962549</v>
+        <v>0.02117279595954404</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02890268190557773</v>
+        <v>0.02863900210698237</v>
       </c>
     </row>
     <row r="15">
@@ -1849,19 +1849,19 @@
         <v>736925</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>727502</v>
+        <v>728520</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>742624</v>
+        <v>742925</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9832089552874278</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9706372734954337</v>
+        <v>0.9719956943872011</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9908124584563707</v>
+        <v>0.9912149185854497</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>850</v>
@@ -1870,19 +1870,19 @@
         <v>948621</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>933402</v>
+        <v>932094</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>959914</v>
+        <v>960171</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9575310944044739</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9421690237862262</v>
+        <v>0.940848770717954</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.968929439907055</v>
+        <v>0.969189127189956</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1595</v>
@@ -1891,19 +1891,19 @@
         <v>1685546</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1667860</v>
+        <v>1670129</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1698463</v>
+        <v>1699038</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9685906039711002</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.958427139392203</v>
+        <v>0.9597313890392117</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9760128852158063</v>
+        <v>0.9763438625435729</v>
       </c>
     </row>
     <row r="5">
@@ -1920,19 +1920,19 @@
         <v>12585</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6886</v>
+        <v>6585</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>22008</v>
+        <v>20990</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01679104471257225</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.009187541543629331</v>
+        <v>0.008785081414550186</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0293627265045665</v>
+        <v>0.02800430561279858</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>39</v>
@@ -1941,19 +1941,19 @@
         <v>42074</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>30781</v>
+        <v>30524</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>57293</v>
+        <v>58601</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04246890559552608</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03107056009294494</v>
+        <v>0.03081087281004398</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05783097621377375</v>
+        <v>0.05915122928204599</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>51</v>
@@ -1962,19 +1962,19 @@
         <v>54659</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>41742</v>
+        <v>41167</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>72345</v>
+        <v>70076</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03140939602889983</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02398711478419375</v>
+        <v>0.02365613745642706</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04157286060779693</v>
+        <v>0.04026861096078806</v>
       </c>
     </row>
     <row r="6">
@@ -2066,19 +2066,19 @@
         <v>2026673</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2012214</v>
+        <v>2012192</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2038596</v>
+        <v>2038498</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9802130872426496</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9732197958813961</v>
+        <v>0.9732091533912073</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9859799295161622</v>
+        <v>0.9859325708420021</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1815</v>
@@ -2087,19 +2087,19 @@
         <v>1888045</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1865912</v>
+        <v>1867852</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1904834</v>
+        <v>1905292</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.956463273984838</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9452510347416261</v>
+        <v>0.9462335508243518</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9649682831897345</v>
+        <v>0.9652002621262784</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3721</v>
@@ -2108,19 +2108,19 @@
         <v>3914718</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3888437</v>
+        <v>3890250</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>3936215</v>
+        <v>3936774</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9686131906524232</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9621105354100815</v>
+        <v>0.962559117699878</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9739320596035093</v>
+        <v>0.9740704988311</v>
       </c>
     </row>
     <row r="8">
@@ -2137,19 +2137,19 @@
         <v>40911</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>28988</v>
+        <v>29086</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>55370</v>
+        <v>55392</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01978691275735045</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01402007048383778</v>
+        <v>0.01406742915799806</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02678020411860389</v>
+        <v>0.02679084660879274</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>80</v>
@@ -2158,19 +2158,19 @@
         <v>85941</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>69152</v>
+        <v>68694</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>108074</v>
+        <v>106134</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04353672601516204</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03503171681026575</v>
+        <v>0.03479973787372181</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05474896525837394</v>
+        <v>0.05376644917564827</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>118</v>
@@ -2179,19 +2179,19 @@
         <v>126852</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>105355</v>
+        <v>104796</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>153133</v>
+        <v>151320</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0313868093475768</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02606794039649069</v>
+        <v>0.02592950116890017</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03788946458991855</v>
+        <v>0.03744088230012205</v>
       </c>
     </row>
     <row r="9">
@@ -2283,19 +2283,19 @@
         <v>536151</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>528337</v>
+        <v>527773</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>540290</v>
+        <v>540341</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9835839980924153</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9692500366895455</v>
+        <v>0.9682149850213919</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9911776524660222</v>
+        <v>0.9912709643348543</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>500</v>
@@ -2304,19 +2304,19 @@
         <v>520973</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>507997</v>
+        <v>508467</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>529647</v>
+        <v>529992</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9557684255398226</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9319623929251485</v>
+        <v>0.9328245497577961</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.971681301321383</v>
+        <v>0.9723142330360114</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>990</v>
@@ -2325,19 +2325,19 @@
         <v>1057124</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1042079</v>
+        <v>1044242</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1067097</v>
+        <v>1067652</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9696764162546695</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9558765955362525</v>
+        <v>0.9578604873932014</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9788249518008797</v>
+        <v>0.9793338877235286</v>
       </c>
     </row>
     <row r="11">
@@ -2354,19 +2354,19 @@
         <v>8948</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4809</v>
+        <v>4758</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>16762</v>
+        <v>17326</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01641600190758477</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.008822347533977752</v>
+        <v>0.008729035665145683</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03074996331045489</v>
+        <v>0.03178501497860801</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>22</v>
@@ -2375,19 +2375,19 @@
         <v>24110</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>15436</v>
+        <v>15091</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>37086</v>
+        <v>36616</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04423157446017745</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02831869867861696</v>
+        <v>0.02768576696398851</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06803760707485138</v>
+        <v>0.06717545024220373</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>31</v>
@@ -2396,19 +2396,19 @@
         <v>33058</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>23085</v>
+        <v>22530</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>48103</v>
+        <v>45940</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0303235837453305</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02117504819912044</v>
+        <v>0.02066611227647136</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04412340446374757</v>
+        <v>0.04213951260679865</v>
       </c>
     </row>
     <row r="12">
@@ -2500,19 +2500,19 @@
         <v>3299748</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3283153</v>
+        <v>3281345</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3314330</v>
+        <v>3312783</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9814274472468945</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9764914439703416</v>
+        <v>0.9759538657461875</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9857644628629482</v>
+        <v>0.9853041363137046</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3165</v>
@@ -2521,19 +2521,19 @@
         <v>3357640</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3334209</v>
+        <v>3331991</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>3380302</v>
+        <v>3383098</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9566567726025769</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9499809665936638</v>
+        <v>0.9493489965416264</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9631136251962161</v>
+        <v>0.9639103409063322</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6306</v>
@@ -2542,19 +2542,19 @@
         <v>6657388</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6627084</v>
+        <v>6624190</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>6685360</v>
+        <v>6686529</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9687761433115171</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9643663369839939</v>
+        <v>0.9639451409898127</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9728466212509417</v>
+        <v>0.9730167492279057</v>
       </c>
     </row>
     <row r="14">
@@ -2571,19 +2571,19 @@
         <v>62445</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>47863</v>
+        <v>49410</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>79040</v>
+        <v>80848</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01857255275310559</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01423553713705177</v>
+        <v>0.0146958636862953</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02350855602965835</v>
+        <v>0.02404613425381246</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>141</v>
@@ -2592,19 +2592,19 @@
         <v>152124</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>129462</v>
+        <v>126666</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>175555</v>
+        <v>177773</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04334322739742314</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03688637480378395</v>
+        <v>0.03608965909366767</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0500190334063363</v>
+        <v>0.05065100345837344</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>200</v>
@@ -2613,19 +2613,19 @@
         <v>214569</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>186597</v>
+        <v>185428</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>244873</v>
+        <v>247767</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03122385668848296</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02715337874905818</v>
+        <v>0.02698325077209412</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03563366301600583</v>
+        <v>0.03605485901018701</v>
       </c>
     </row>
     <row r="15">
